--- a/cema/excel_data/excel_driver.xlsx
+++ b/cema/excel_data/excel_driver.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" windowWidth="28800" windowHeight="12240" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" windowWidth="27900" windowHeight="12240" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
@@ -16,7 +16,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="0"/>
-  <fonts count="20">
+  <fonts count="22">
     <font>
       <name val="宋体"/>
       <charset val="134"/>
@@ -34,6 +34,20 @@
     </font>
     <font>
       <name val="宋体"/>
+      <charset val="134"/>
+      <b val="1"/>
+      <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <color rgb="FFFA7D00"/>
+      <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="宋体"/>
       <charset val="0"/>
       <color theme="1"/>
       <sz val="11"/>
@@ -42,38 +56,8 @@
     <font>
       <name val="宋体"/>
       <charset val="0"/>
-      <color rgb="FF9C0006"/>
-      <sz val="11"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <name val="宋体"/>
-      <charset val="0"/>
       <color theme="0"/>
       <sz val="11"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <color rgb="FFFF0000"/>
-      <sz val="11"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <b val="1"/>
-      <color rgb="FF3F3F3F"/>
-      <sz val="11"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <color rgb="FF800080"/>
-      <sz val="11"/>
-      <u val="single"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -86,10 +70,10 @@
     </font>
     <font>
       <name val="宋体"/>
-      <charset val="134"/>
-      <b val="1"/>
-      <color theme="3"/>
-      <sz val="11"/>
+      <charset val="0"/>
+      <color rgb="FF800080"/>
+      <sz val="11"/>
+      <u val="single"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -97,28 +81,6 @@
       <charset val="0"/>
       <i val="1"/>
       <color rgb="FF7F7F7F"/>
-      <sz val="11"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <b val="1"/>
-      <color rgb="FFFFFFFF"/>
-      <sz val="11"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <color rgb="FFFA7D00"/>
-      <sz val="11"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <color rgb="FF006100"/>
       <sz val="11"/>
       <scheme val="minor"/>
     </font>
@@ -134,7 +96,59 @@
       <name val="宋体"/>
       <charset val="0"/>
       <b val="1"/>
-      <color theme="1"/>
+      <color rgb="FF3F3F3F"/>
+      <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <b val="1"/>
+      <color rgb="FFFFFFFF"/>
+      <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <color rgb="FF006100"/>
+      <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <color rgb="FF9C0006"/>
+      <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <color rgb="FFFF0000"/>
+      <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <color rgb="FF3F3F76"/>
+      <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <b val="1"/>
+      <color theme="3"/>
+      <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <b val="1"/>
+      <color rgb="FFFA7D00"/>
       <sz val="11"/>
       <scheme val="minor"/>
     </font>
@@ -149,15 +163,8 @@
     <font>
       <name val="宋体"/>
       <charset val="0"/>
-      <color rgb="FF3F3F76"/>
-      <sz val="11"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <name val="宋体"/>
-      <charset val="0"/>
       <b val="1"/>
-      <color rgb="FFFA7D00"/>
+      <color theme="1"/>
       <sz val="11"/>
       <scheme val="minor"/>
     </font>
@@ -168,8 +175,11 @@
       <sz val="11"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b val="1"/>
+    </font>
   </fonts>
-  <fills count="33">
+  <fills count="35">
     <fill>
       <patternFill/>
     </fill>
@@ -178,19 +188,145 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFAACF91"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFC7CE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -202,7 +338,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -214,152 +374,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
+        <fgColor rgb="00FF0000"/>
       </patternFill>
     </fill>
   </fills>
@@ -369,6 +390,15 @@
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -383,6 +413,15 @@
       </top>
       <bottom style="thin">
         <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -402,15 +441,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="double">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -422,35 +452,6 @@
       </top>
       <bottom style="double">
         <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -469,99 +470,119 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="27" borderId="8" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="33" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="20" borderId="6" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="13" borderId="6" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="31" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="17" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="7" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="18" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="16" borderId="5" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="13" borderId="4" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="9" borderId="8" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="32" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="18" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="7" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="15" borderId="4" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="2" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="3" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyAlignment="1">
@@ -570,61 +591,67 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="2" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="6" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" applyAlignment="1">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="8" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="41">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="34" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -1015,7 +1042,7 @@
   <dimension ref="A1:H9"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleSheetLayoutView="60" workbookViewId="0">
-      <selection activeCell="E8" sqref="E8"/>
+      <selection activeCell="G13" sqref="G13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultColWidth="10.3846153846154" defaultRowHeight="16.8"/>
@@ -1220,12 +1247,12 @@
       </c>
       <c r="G8" s="0" t="inlineStr">
         <is>
-          <t>搜索工具</t>
-        </is>
-      </c>
-      <c r="H8" s="0" t="inlineStr">
-        <is>
-          <t>Pass</t>
+          <t>搜索工具1</t>
+        </is>
+      </c>
+      <c r="H8" s="4" t="inlineStr">
+        <is>
+          <t>Failed</t>
         </is>
       </c>
     </row>

--- a/cema/excel_data/excel_driver.xlsx
+++ b/cema/excel_data/excel_driver.xlsx
@@ -42,21 +42,7 @@
     <font>
       <name val="宋体"/>
       <charset val="0"/>
-      <color rgb="FFFA7D00"/>
-      <sz val="11"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <name val="宋体"/>
-      <charset val="0"/>
       <color theme="1"/>
-      <sz val="11"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <color theme="0"/>
       <sz val="11"/>
       <scheme val="minor"/>
     </font>
@@ -71,9 +57,23 @@
     <font>
       <name val="宋体"/>
       <charset val="0"/>
-      <color rgb="FF800080"/>
-      <sz val="11"/>
-      <u val="single"/>
+      <color theme="0"/>
+      <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <color rgb="FFFA7D00"/>
+      <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <b val="1"/>
+      <color theme="3"/>
+      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -103,52 +103,7 @@
     <font>
       <name val="宋体"/>
       <charset val="0"/>
-      <b val="1"/>
-      <color rgb="FFFFFFFF"/>
-      <sz val="11"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <color rgb="FF006100"/>
-      <sz val="11"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <color rgb="FF9C0006"/>
-      <sz val="11"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <name val="宋体"/>
-      <charset val="0"/>
       <color rgb="FFFF0000"/>
-      <sz val="11"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <color rgb="FF3F3F76"/>
-      <sz val="11"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <b val="1"/>
-      <color theme="3"/>
-      <sz val="11"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <b val="1"/>
-      <color rgb="FFFA7D00"/>
       <sz val="11"/>
       <scheme val="minor"/>
     </font>
@@ -163,6 +118,27 @@
     <font>
       <name val="宋体"/>
       <charset val="0"/>
+      <color rgb="FF006100"/>
+      <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <color rgb="FF9C6500"/>
+      <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <color rgb="FF9C0006"/>
+      <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="宋体"/>
+      <charset val="0"/>
       <b val="1"/>
       <color theme="1"/>
       <sz val="11"/>
@@ -171,7 +147,31 @@
     <font>
       <name val="宋体"/>
       <charset val="0"/>
-      <color rgb="FF9C6500"/>
+      <b val="1"/>
+      <color rgb="FFFFFFFF"/>
+      <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <color rgb="FF3F3F76"/>
+      <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <color rgb="FF800080"/>
+      <sz val="11"/>
+      <u val="single"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <b val="1"/>
+      <color rgb="FFFA7D00"/>
       <sz val="11"/>
       <scheme val="minor"/>
     </font>
@@ -188,7 +188,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFAACF91"/>
+        <fgColor rgb="FFFF0000"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -200,91 +200,175 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -296,91 +380,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="00FF0000"/>
+        <fgColor rgb="00AACF91"/>
       </patternFill>
     </fill>
   </fills>
@@ -396,8 +396,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <bottom style="medium">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -420,8 +420,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4"/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -441,6 +441,17 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="double">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -452,6 +463,15 @@
       </top>
       <bottom style="double">
         <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -470,149 +490,129 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="26" borderId="8" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="10" borderId="8" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="33" borderId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="20" borderId="6" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="13" borderId="6" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="31" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="17" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="7" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="18" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="16" borderId="5" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="13" borderId="4" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="14" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="12" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="5" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="17" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="19" borderId="6" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="10" borderId="4" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="2" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="2" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyAlignment="1">
@@ -621,22 +621,22 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="7" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="3" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="8" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1042,7 +1042,7 @@
   <dimension ref="A1:H9"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleSheetLayoutView="60" workbookViewId="0">
-      <selection activeCell="G13" sqref="G13"/>
+      <selection activeCell="D14" sqref="D14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultColWidth="10.3846153846154" defaultRowHeight="16.8"/>
@@ -1247,12 +1247,12 @@
       </c>
       <c r="G8" s="0" t="inlineStr">
         <is>
-          <t>搜索工具1</t>
+          <t>搜索工具</t>
         </is>
       </c>
       <c r="H8" s="4" t="inlineStr">
         <is>
-          <t>Failed</t>
+          <t>Pass</t>
         </is>
       </c>
     </row>
